--- a/数据整理/stocks/A股/上证主板/600027-华电国际.xlsx
+++ b/数据整理/stocks/A股/上证主板/600027-华电国际.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>86.42</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>5.05</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1283</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>2</v>
       </c>
     </row>
@@ -530,15 +550,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>21.56</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1.03</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0833</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>10</v>
       </c>
     </row>
@@ -558,15 +588,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>21.56</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1.03</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>10</v>
       </c>
     </row>
@@ -581,7 +621,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -602,15 +642,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -632,15 +682,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>89.91</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2.01</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>7</v>
       </c>
     </row>
@@ -660,15 +720,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>89.91</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>2.01</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>7</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600027-华电国际.xlsx
+++ b/数据整理/stocks/A股/上证主板/600027-华电国际.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -745,4 +746,326 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002350</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安安华灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>40.83</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.26</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9513</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001309</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方红睿逸定期开放混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>52.23</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>21.06</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4753</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>501029</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华宝标普中国A股红利机会指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.23</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1555</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>515450</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方标普中国A股大盘红利低波50ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.79</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0759</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009842</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东方红明鉴优选两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>22.33</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0286</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>710002</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富安达策略精选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>75.36</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>501072</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国金标普中国A股低波红利指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.57</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600027-华电国际.xlsx
+++ b/数据整理/stocks/A股/上证主板/600027-华电国际.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1068,4 +1069,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600027-华电国际.xlsx
+++ b/数据整理/stocks/A股/上证主板/600027-华电国际.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1077,7 +1078,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1088,17 +1089,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1108,14 +1129,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.71</v>
+          <t>002350</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安安华灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>61.51</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.31</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1195</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1124,14 +1167,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
+          <t>270022</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发内需增长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.91</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>79.54</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9045</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1140,13 +1205,781 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>340008</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴全有机增长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>30.22</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>78.82</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7948</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011134</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13.75</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7232</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008418</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>惠升惠泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.01</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>82.95</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2743</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008531</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>惠升惠民混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.63</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>81.22</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2365</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>501029</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华宝标普中国A股红利机会指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.85</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1801</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010076</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>湘财长弘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1328</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011550</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>湘财创新成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1289</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>515450</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>南方标普中国A股大盘红利低波50ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>98.73</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1106</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011135</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1047</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001532</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华安文体健康主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>86.17</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0995</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>080005</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>长盛量化红利混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>76.06</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0630</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008419</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>惠升惠泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>82.95</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0408</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008532</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>惠升惠民混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>81.22</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0395</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006225</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>人保量化基本面混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.83</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011551</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>湘财创新成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010077</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>湘财长弘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011183</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>广发内需增长混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>79.54</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006226</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>人保量化基本面混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>89.83</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>20</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.02</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>3</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.23</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600027-华电国际.xlsx
+++ b/数据整理/stocks/A股/上证主板/600027-华电国际.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1894,7 +1895,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1905,17 +1906,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1925,14 +1946,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>20</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5.02</v>
+          <t>010379</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发均衡优选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>55.11</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>64.69</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.7279</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1941,14 +1984,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.71</v>
+          <t>001532</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安文体健康主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>87.24</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8408</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1957,14 +2022,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
+          <t>009887</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发稳健优选六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>30.91</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>64.69</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.5640</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -1973,13 +2060,493 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>011194</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发睿铭两年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>20.55</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>74.56</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0049</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002350</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安安华灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>42.47</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9131</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009888</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发稳健优选六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.86</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>64.69</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6001</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011195</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发睿铭两年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>74.56</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3731</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011134</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3124</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010380</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发均衡优选混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>64.69</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1728</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008531</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>惠升惠民混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>71.70</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0794</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011135</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0728</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>080005</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>长盛量化红利混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>69.88</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0670</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008532</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>惠升惠民混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>71.70</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>13</v>
+      </c>
+      <c r="D2" t="n">
+        <v>9.75</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>20</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.02</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>3</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.23</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600027-华电国际.xlsx
+++ b/数据整理/stocks/A股/上证主板/600027-华电国际.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2445,7 +2446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2456,17 +2457,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2476,14 +2497,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>13</v>
-      </c>
-      <c r="D2" t="n">
-        <v>9.75</v>
+          <t>010379</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发均衡优选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>58.35</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>65.97</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.0809</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -2492,14 +2535,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>20</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5.02</v>
+          <t>008297</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发价值优势混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>29.23</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.4323</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -2508,14 +2573,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>7</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.71</v>
+          <t>002350</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安安华灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>37.46</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2661</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -2524,14 +2611,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
+          <t>009887</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发稳健优选六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>19.97</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>65.96</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0704</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -2540,13 +2649,1117 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>011194</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发睿铭两年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>13.67</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>75.16</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7122</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014207</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华安产业精选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>25.45</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.20</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6795</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009888</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发稳健优选六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>12.40</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>65.96</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6646</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>270022</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发内需增长混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>13.06</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>79.82</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6634</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011195</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发睿铭两年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>75.16</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4204</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>014208</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华安产业精选混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>14.20</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>85.20</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3791</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011134</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>95.15</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3469</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>013143</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国安诚回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>20.24</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>30.29</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2510</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010380</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发均衡优选混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>65.97</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1927</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001345</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富国新收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>10.81</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>48.33</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1913</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>013144</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国安诚回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>12.08</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>30.29</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1498</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>080005</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>长盛量化红利混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>68.47</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0803</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011135</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>广发价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>95.15</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0798</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010843</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富国天润回报混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>34.72</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0735</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>004737</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>富国新优享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>28.83</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0600</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>000841</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>富国新回报灵活配置混合 - A/B</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>28.13</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0454</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001347</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>富国新收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>48.33</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011183</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>广发内需增长混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>79.82</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010844</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>富国天润回报混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>34.72</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005616</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>东方量化成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>004403</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>平安股息精选沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>000843</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>富国新回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>28.13</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009649</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>嘉实精选平衡混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>63.68</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>004747</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>富国新优享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>28.83</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009650</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>嘉实精选平衡混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>63.68</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>004404</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>平安股息精选沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>30</v>
+      </c>
+      <c r="D2" t="n">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>13</v>
+      </c>
+      <c r="D3" t="n">
+        <v>9.75</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>20</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.02</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>3</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.23</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600027-华电国际.xlsx
+++ b/数据整理/stocks/A股/上证主板/600027-华电国际.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,167 +456,129 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>161611</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>融通内需驱动混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2.54</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>86.42</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.05</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1283</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>30</v>
+      </c>
+      <c r="D2" t="n">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>13</v>
+      </c>
+      <c r="D3" t="n">
+        <v>9.75</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>000314</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>招商瑞丰灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>8.09</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>21.56</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.03</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0833</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>20</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.02</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>002017</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>招商瑞丰灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2.23</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>21.56</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.03</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0230</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.23</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -626,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -647,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -677,36 +639,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002334</t>
+          <t>010379</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>汇丰晋信大盘波动精选股票A</t>
+          <t>广发均衡优选混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>58.35</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>89.91</t>
+          <t>65.97</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.01</t>
+          <t>5.28</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0038</t>
+          <t>3.0809</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -715,36 +677,1100 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>002335</t>
+          <t>008297</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>汇丰晋信大盘波动精选股票C</t>
+          <t>广发价值优势混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>29.23</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>89.91</t>
+          <t>94.46</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.01</t>
+          <t>4.90</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0004</t>
+          <t>1.4323</t>
         </is>
       </c>
       <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002350</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安安华灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>37.46</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2661</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009887</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发稳健优选六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>19.97</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>65.96</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0704</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011194</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发睿铭两年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>13.67</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>75.16</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7122</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014207</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华安产业精选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>25.45</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.20</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6795</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009888</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发稳健优选六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>12.40</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>65.96</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6646</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>270022</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发内需增长混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>13.06</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>79.82</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6634</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011195</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发睿铭两年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>75.16</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4204</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>014208</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华安产业精选混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>14.20</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>85.20</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3791</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011134</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>95.15</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3469</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>013143</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国安诚回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>20.24</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>30.29</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2510</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010380</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发均衡优选混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>65.97</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1927</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001345</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富国新收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>10.81</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>48.33</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1913</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>013144</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国安诚回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>12.08</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>30.29</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1498</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>080005</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>长盛量化红利混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>68.47</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0803</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011135</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>广发价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>95.15</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0798</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010843</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富国天润回报混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>34.72</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0735</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>004737</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>富国新优享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>28.83</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0600</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>000841</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>富国新回报灵活配置混合 - A/B</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>28.13</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0454</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001347</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>富国新收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>48.33</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011183</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>广发内需增长混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>79.82</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010844</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>富国天润回报混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>34.72</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005616</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>东方量化成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>004403</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>平安股息精选沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>000843</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>富国新回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>28.13</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009649</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>嘉实精选平衡混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>63.68</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>004747</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>富国新优享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>28.83</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009650</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>嘉实精选平衡混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>63.68</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>004404</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>平安股息精选沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -758,7 +1784,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -779,7 +1805,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -809,36 +1835,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002350</t>
+          <t>010379</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华安安华灵活配置混合</t>
+          <t>广发均衡优选混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>40.83</t>
+          <t>55.11</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>82.26</t>
+          <t>64.69</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.33</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.9513</t>
+          <t>2.7279</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -847,36 +1873,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001309</t>
+          <t>001532</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>东方红睿逸定期开放混合</t>
+          <t>华安文体健康主题灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>52.23</t>
+          <t>87.24</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>21.06</t>
+          <t>92.86</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>2.11</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.4753</t>
+          <t>1.8408</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -885,36 +1911,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>501029</t>
+          <t>009887</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华宝标普中国A股红利机会指数（LOF）A</t>
+          <t>广发稳健优选六个月持有期混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>10.23</t>
+          <t>30.91</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.44</t>
+          <t>64.69</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.52</t>
+          <t>5.06</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1555</t>
+          <t>1.5640</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -923,36 +1949,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>515450</t>
+          <t>011194</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>南方标普中国A股大盘红利低波50ETF</t>
+          <t>广发睿铭两年持有期混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.71</t>
+          <t>20.55</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>98.79</t>
+          <t>74.56</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.44</t>
+          <t>4.89</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0759</t>
+          <t>1.0049</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -961,36 +1987,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>009842</t>
+          <t>002350</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>东方红明鉴优选两年定期开放混合</t>
+          <t>华安安华灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3.71</t>
+          <t>42.47</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>22.33</t>
+          <t>93.61</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0286</t>
+          <t>0.9131</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -999,36 +2025,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>710002</t>
+          <t>009888</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>富安达策略精选混合</t>
+          <t>广发稳健优选六个月持有期混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>11.86</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>75.36</t>
+          <t>64.69</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.14</t>
+          <t>5.06</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0197</t>
+          <t>0.6001</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -1037,36 +2063,264 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>501072</t>
+          <t>011195</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>国金标普中国A股低波红利指数增强（LOF）</t>
+          <t>广发睿铭两年持有期混合型证券投资基金C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>7.63</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>89.57</t>
+          <t>74.56</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1.35</t>
+          <t>4.89</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0003</t>
+          <t>0.3731</t>
         </is>
       </c>
       <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011134</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3124</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010380</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发均衡优选混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>64.69</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1728</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008531</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>惠升惠民混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>71.70</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0794</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011135</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0728</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>080005</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>长盛量化红利混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>69.88</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0670</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008532</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>惠升惠民混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>71.70</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1896,7 +3150,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1917,7 +3171,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1947,36 +3201,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010379</t>
+          <t>002350</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发均衡优选混合A</t>
+          <t>华安安华灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>55.11</t>
+          <t>40.83</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>64.69</t>
+          <t>82.26</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>2.33</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.7279</t>
+          <t>0.9513</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1985,36 +3239,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001532</t>
+          <t>001309</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华安文体健康主题灵活配置混合</t>
+          <t>东方红睿逸定期开放混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>87.24</t>
+          <t>52.23</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.86</t>
+          <t>21.06</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.11</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.8408</t>
+          <t>0.4753</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -2023,36 +3277,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009887</t>
+          <t>501029</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>广发稳健优选六个月持有期混合A</t>
+          <t>华宝标普中国A股红利机会指数（LOF）A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>30.91</t>
+          <t>10.23</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>64.69</t>
+          <t>94.44</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.06</t>
+          <t>1.52</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.5640</t>
+          <t>0.1555</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -2061,36 +3315,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>011194</t>
+          <t>515450</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>广发睿铭两年持有期混合型证券投资基金A</t>
+          <t>南方标普中国A股大盘红利低波50ETF</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>20.55</t>
+          <t>1.71</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>74.56</t>
+          <t>98.79</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.89</t>
+          <t>4.44</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.0049</t>
+          <t>0.0759</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -2099,36 +3353,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>002350</t>
+          <t>009842</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华安安华灵活配置混合</t>
+          <t>东方红明鉴优选两年定期开放混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>42.47</t>
+          <t>3.71</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>93.61</t>
+          <t>22.33</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.9131</t>
+          <t>0.0286</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -2137,36 +3391,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>009888</t>
+          <t>710002</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>广发稳健优选六个月持有期混合C</t>
+          <t>富安达策略精选混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>11.86</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>64.69</t>
+          <t>75.36</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>5.06</t>
+          <t>2.14</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.6001</t>
+          <t>0.0197</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -2175,264 +3429,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>011195</t>
+          <t>501072</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>广发睿铭两年持有期混合型证券投资基金C</t>
+          <t>国金标普中国A股低波红利指数增强（LOF）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>7.63</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>74.56</t>
+          <t>89.57</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.89</t>
+          <t>1.35</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.3731</t>
+          <t>0.0003</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
         <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>011134</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>广发价值优选混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>6.35</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>93.95</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>4.92</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.3124</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>010380</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>广发均衡优选混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>3.49</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>64.69</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>4.95</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.1728</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>008531</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>惠升惠民混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>3.71</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>71.70</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2.14</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0794</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>011135</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>广发价值优选混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>1.48</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>93.95</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>4.92</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0728</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>080005</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>长盛量化红利混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>2.66</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>69.88</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>2.52</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0670</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>008532</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>惠升惠民混合C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>1.20</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>71.70</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>2.14</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0257</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2446,7 +3472,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2467,7 +3493,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2497,36 +3523,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010379</t>
+          <t>002334</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发均衡优选混合A</t>
+          <t>汇丰晋信大盘波动精选股票A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>58.35</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>65.97</t>
+          <t>89.91</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.28</t>
+          <t>2.01</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.0809</t>
+          <t>0.0038</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -2535,1100 +3561,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008297</t>
+          <t>002335</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>广发价值优势混合</t>
+          <t>汇丰晋信大盘波动精选股票C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>29.23</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.46</t>
+          <t>89.91</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.90</t>
+          <t>2.01</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.4323</t>
+          <t>0.0004</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>002350</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华安安华灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>37.46</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.32</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.38</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.2661</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>009887</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>广发稳健优选六个月持有期混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>19.97</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>65.96</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.36</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1.0704</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>011194</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>广发睿铭两年持有期混合型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>13.67</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>75.16</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>5.21</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.7122</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>014207</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>华安产业精选混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>25.45</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>85.20</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.67</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.6795</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>009888</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>广发稳健优选六个月持有期混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>12.40</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>65.96</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>5.36</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.6646</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
         <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>270022</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>广发内需增长混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>13.06</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>79.82</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>5.08</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.6634</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>011195</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>广发睿铭两年持有期混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>8.07</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>75.16</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>5.21</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.4204</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>014208</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>华安产业精选混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>14.20</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>85.20</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2.67</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.3791</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>011134</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>广发价值优选混合A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>6.52</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>95.15</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>5.32</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.3469</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>013143</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>富国安诚回报12个月持有期混合A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>20.24</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>30.29</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>1.24</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.2510</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>010380</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>广发均衡优选混合C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>3.65</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>65.97</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>5.28</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.1927</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>001345</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>富国新收益灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>10.81</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>48.33</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>1.77</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.1913</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>013144</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>富国安诚回报12个月持有期混合C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>12.08</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>30.29</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>1.24</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.1498</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>080005</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>长盛量化红利混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>2.07</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>68.47</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>3.88</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0803</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>011135</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>广发价值优选混合C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>1.50</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>95.15</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>5.32</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0798</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>010843</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>富国天润回报混合A</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>5.93</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>34.72</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>1.24</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0735</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>004737</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>富国新优享灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>4.84</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>28.83</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>1.24</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0600</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>000841</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>富国新回报灵活配置混合 - A/B</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>3.66</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>28.13</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>1.24</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0454</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>001347</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>富国新收益灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>1.45</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>48.33</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>1.77</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0257</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>011183</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>广发内需增长混合C</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0.24</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>79.82</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>5.08</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0122</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>010844</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>富国天润回报混合C</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0.36</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>34.72</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>1.24</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0045</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>005616</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>东方量化成长灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>0.20</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>91.71</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>1.90</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0038</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>004403</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>平安股息精选沪港深股票A</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>93.65</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>2.84</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0028</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>000843</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>富国新回报灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>28.13</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>1.24</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0027</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>009649</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>嘉实精选平衡混合A</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>63.68</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>5.10</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0026</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>004747</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>富国新优享灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>0.16</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>28.83</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>1.24</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0020</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>009650</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>嘉实精选平衡混合C</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>63.68</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>5.10</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.0005</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>004404</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>平安股息精选沪港深股票C</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>93.65</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>2.84</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.0003</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -3642,128 +3604,166 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>30</v>
-      </c>
-      <c r="D2" t="n">
-        <v>11.9</v>
+          <t>161611</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>融通内需驱动混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.42</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1283</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>13</v>
-      </c>
-      <c r="D3" t="n">
-        <v>9.75</v>
+          <t>000314</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商瑞丰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>21.56</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0833</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>20</v>
-      </c>
-      <c r="D4" t="n">
-        <v>5.02</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>7</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.71</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>3</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.23</v>
+          <t>002017</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商瑞丰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>21.56</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600027-华电国际.xlsx
+++ b/数据整理/stocks/A股/上证主板/600027-华电国际.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="D2" t="n">
-        <v>11.9</v>
+        <v>22.19</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="D3" t="n">
-        <v>9.75</v>
+        <v>11.9</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D4" t="n">
-        <v>5.02</v>
+        <v>9.75</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D5" t="n">
-        <v>1.71</v>
+        <v>5.02</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1.71</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>3</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.23</v>
       </c>
     </row>
@@ -583,6 +600,2798 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H73"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519002</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安安信消费混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>67.62</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.32</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.9550</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010379</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发均衡优选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>50.19</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>64.93</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.3890</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>720001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>财通价值动量混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>38.35</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>79.13</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.9175</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008297</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发价值优势混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>26.77</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.4697</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001480</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>财通成长优选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.1617</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011128</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华安精致生活混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>29.39</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>82.04</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.0228</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009887</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发稳健优选六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>17.82</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>64.97</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.9142</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>100032</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国中证红利指数增强A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>54.79</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.9040</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010385</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华安汇嘉精选混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>19.69</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.06</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.8486</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011194</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发睿铭两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>13.50</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>74.90</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.7614</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>398001</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中海优质成长混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>11.35</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>86.19</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.6220</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011251</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华安聚嘉精选混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>16.07</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>84.10</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5817</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009888</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发稳健优选六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>11.05</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>64.97</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.5669</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>159611</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发中证全指电力ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>16.62</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>99.58</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.5169</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>013686</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华安安信消费混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>11.35</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>86.32</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4960</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011252</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华安聚嘉精选混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>13.19</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>84.10</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4775</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011129</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华安精致生活混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>12.94</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>82.04</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4503</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011195</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>广发睿铭两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>74.90</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4484</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001309</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>东方红睿逸定期开放混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>41.28</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>27.39</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3550</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>014915</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>财通匠心优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>81.89</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3294</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009970</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>财通内需增长12个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>9.38</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>56.38</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2983</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011134</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>广发价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2550</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010386</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华安汇嘉精选混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>86.06</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1896</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>501046</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>财通多策略福鑫定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>85.55</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1729</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>217001</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>招商安泰混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>75.08</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1639</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>014754</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华安景气优选混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>87.64</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1638</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010380</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>广发均衡优选混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>64.93</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1528</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>008983</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>财通科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1425</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>008682</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>富国中证红利指数增强C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1365</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009062</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>财通智慧成长混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>84.78</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1263</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>501059</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>西部利得中证国有企业红利指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>87.88</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0972</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>009063</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>财通智慧成长混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>84.78</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0873</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>009439</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>西部利得中证国有企业红利指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>87.88</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0815</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011135</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>广发价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0759</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>080005</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>长盛量化红利混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>61.68</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0665</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>002252</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>融通成长30灵活配置混合A/B</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0644</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>008984</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>财通科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0560</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>014106</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>融通成长30灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0553</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>011471</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>鹏华致远成长混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>65.59</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0491</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>014755</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华安景气优选混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>87.64</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0467</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>005708</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>国联安远见成长混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>86.41</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0442</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>561700</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>博时中证全指电力公用事业ETF</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>98.79</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0403</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>006729</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>万家中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0364</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>014916</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>财通匠心优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>81.89</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0356</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>000916</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>前海开源股息率100强等权重股票</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>582003</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>东吴配置优化灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>011707</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>东吴配置优化灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0277</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>561560</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证全指电力公用事业ETF</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>98.29</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>005815</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>农银汇理睿选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>87.02</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0269</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>006730</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>万家中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>001834</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>长盛战略新兴产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>50.54</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>000935</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>浙商汇金转型成长混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>83.61</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>013145</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>浙商汇金先进制造混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>83.33</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>001244</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化智慧灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>002125</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>广发新兴成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>78.91</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>003595</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>长盛盛崇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>44.66</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>562350</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>银华中证全指电力公用事业ETF</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>97.99</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>003594</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>长盛盛崇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>44.66</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>004557</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>北信瑞丰鼎丰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>64.59</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>001252</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>中海进取收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>87.95</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>169201</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>浙商汇金鼎盈事件驱动灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>83.34</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>007316</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>交银施罗德可转债债券A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>23.69</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>005616</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>东方量化成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>080008</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>长盛战略新兴产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>50.54</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>007317</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>交银施罗德可转债债券C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>23.69</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>006104</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化智慧灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>001724</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>申万菱信多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>23.23</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>005966</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>安信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>011472</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>鹏华致远成长混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>65.59</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>515590</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>前海开源中证500等权重ETF</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>95.52</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>005965</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>安信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>001148</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>申万菱信多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>23.23</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1778,7 +4587,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2328,7 +5137,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3144,7 +5953,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3466,7 +6275,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3598,7 +6407,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/600027-华电国际.xlsx
+++ b/数据整理/stocks/A股/上证主板/600027-华电国际.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>72</v>
+        <v>112</v>
       </c>
       <c r="D2" t="n">
-        <v>22.19</v>
+        <v>30.47</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="D3" t="n">
-        <v>11.9</v>
+        <v>22.19</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="D4" t="n">
-        <v>9.75</v>
+        <v>11.9</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D5" t="n">
-        <v>5.02</v>
+        <v>9.75</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D6" t="n">
-        <v>1.71</v>
+        <v>5.02</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>1.71</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>3</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.23</v>
       </c>
     </row>
@@ -600,6 +617,4312 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H113"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519702</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银趋势优先混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>99.56</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.36</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.6184</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010379</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发均衡优选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>48.69</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>64.94</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.5611</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>720001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>财通价值动量混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>36.34</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>79.52</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.4966</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519002</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安安信消费混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>62.23</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>83.24</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.1034</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008297</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发价值优势混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>27.51</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.9450</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>163418</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>兴全合兴混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>55.36</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.30</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.7383</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001480</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>财通成长优选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>20.59</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.01</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.5381</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>163411</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>兴全精选混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>34.84</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.34</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.1358</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009887</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发稳健优选六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>17.19</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>64.90</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.8870</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011194</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发睿铭两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>13.63</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>74.96</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.8723</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001736</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>圆信永丰优加生活股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>43.58</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>80.55</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.7626</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011128</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华安精致生活混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>27.22</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.35</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.6778</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010385</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华安汇嘉精选混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>21.01</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>86.57</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.5862</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>270022</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发内需增长混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>9.81</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>79.97</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.5719</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009888</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>广发稳健优选六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>10.60</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>64.90</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.5470</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>013430</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>交银趋势优先混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>20.19</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>81.36</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.5310</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011195</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>广发睿铭两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>74.96</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.5139</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>014038</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>交银启诚混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>24.58</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>81.04</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4965</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>159611</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>广发中证全指电力ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>15.70</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>99.51</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.4553</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011251</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华安聚嘉精选混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>16.85</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>84.72</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.4280</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002620</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中邮未来新蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>11.76</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>86.82</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3975</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>014915</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>财通匠心优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3792</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>004958</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>圆信永丰优享生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>21.27</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>80.32</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3531</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>013686</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华安安信消费混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>10.44</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>83.24</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3529</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>530011</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>建信内生动力混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>82.00</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.3369</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011129</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华安精致生活混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>13.13</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>87.35</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.3269</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011134</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>广发价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.3073</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011252</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华安聚嘉精选混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>11.75</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>84.72</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2984</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>014029</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>浦银安盛红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>9.07</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>71.06</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2512</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010532</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>广发恒信一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>24.51</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>21.45</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2181</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>519115</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>浦银安盛红利精选混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>71.06</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2105</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011001</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中邮兴荣价值一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>67.79</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2029</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>501046</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>财通多策略福鑫定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1977</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010380</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>广发均衡优选混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>64.94</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1688</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>008983</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>财通科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>87.06</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1685</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>001825</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>建信中国制造2025股票A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>84.56</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1506</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>008245</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>圆信永丰致优混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>79.79</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1501</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>009062</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>财通智慧成长混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>86.49</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1464</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>014039</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>交银启诚混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>81.04</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1458</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>009063</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>财通智慧成长混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>86.49</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1242</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>004959</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>圆信永丰优悦生活混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>79.04</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1230</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010386</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华安汇嘉精选混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>86.57</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1191</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>003401</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>工银可转债债券</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>49.19</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1101</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>011183</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>广发内需增长混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>79.97</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1061</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>008984</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>财通科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>87.06</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1051</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>008445</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>融通产业趋势先锋股票</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0990</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>011135</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>广发价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0926</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>013238</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>财通均衡一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>86.59</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0718</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>501026</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>财通多策略福享混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>86.97</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0622</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>005945</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>工银可转债优选债券A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>38.35</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0614</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>008246</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>圆信永丰致优混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>79.79</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0583</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>000017</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>财通可持续发展主题混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0534</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>014380</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>建信中国制造2025股票C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>84.56</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0525</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>014999</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年盈混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>84.95</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0493</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>010533</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>广发恒信一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>21.45</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0468</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>006336</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>泓德量化精选混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0454</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>012132</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>华泰保兴价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>81.95</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0445</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>005708</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>国联安远见成长混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0434</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>001457</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>华商新常态灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>87.50</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0422</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>001276</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>建信新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>70.13</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0422</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>014916</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>财通匠心优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0408</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>001339</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>兴银鼎新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>87.16</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0391</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>006729</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>万家中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0388</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>009956</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>广发恒誉混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>25.40</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0373</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>561700</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>博时中证全指电力公用事业ETF</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>98.77</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0373</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>561560</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证全指电力公用事业ETF</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>98.97</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0352</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>009689</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>易方达瑞锦灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>25.04</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0351</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>000916</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>前海开源股息率100强等权重股票</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0298</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>006730</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>万家中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0295</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>005815</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>农银汇理睿选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>84.42</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>005493</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>鑫元价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>86.30</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>001834</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>长盛战略新兴产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>47.08</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>010124</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>兴银景气优选混合A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>83.23</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>000935</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>浙商汇金转型成长混合</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>76.54</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>013145</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>浙商汇金先进制造混合</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>76.93</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>011543</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>中加科瑞混合A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>26.11</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>009140</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>永赢竞争力精选混合</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>010125</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>兴银景气优选混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>83.23</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>005946</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>工银可转债优选债券C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>38.35</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>008135</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>华宸未来价值先锋混合</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>83.80</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>562350</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>银华中证全指电力公用事业ETF</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>96.99</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>008420</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>广发招泰混合A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>28.81</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>009690</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>易方达瑞锦灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>25.04</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>006522</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>财通新兴蓝筹混合A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>80.41</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>002415</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>融通通盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>81.71</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>016282</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>建信内生动力混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>82.00</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>011816</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>融通多元收益一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>22.61</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>519172</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>浦银安盛睿智精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>89.04</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>169201</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>浙商汇金鼎盈事件驱动灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>69.83</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>001830</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>融通跨界成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>81.58</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>007316</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>交银施罗德可转债债券A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>20.54</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>008421</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>广发招泰混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>28.81</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>012177</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>华泰保兴价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>81.95</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>519173</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>浦银安盛睿智精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>89.04</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>006523</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>财通新兴蓝筹混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>80.41</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>519099</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>新华灵活主题混合</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>080008</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>长盛战略新兴产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>47.08</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>005616</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>东方量化成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>006968</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>财通行业龙头精选混合C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>85.52</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>004403</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>平安股息精选沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>016070</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>华商新常态灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>87.50</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>006967</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>财通行业龙头精选混合A</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>85.52</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>013239</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>财通均衡一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>86.59</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>007317</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>交银施罗德可转债债券C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>20.54</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>015000</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年盈混合C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>84.95</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>515590</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>前海开源中证500等权重ETF</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>95.19</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>004404</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>平安股息精选沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>009957</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>广发恒誉混合C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>25.40</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>000706</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>中邮多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>89.04</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>005494</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>鑫元价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>86.30</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G111" t="n">
+        <v>0</v>
+      </c>
+      <c r="H111" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>010670</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>兴全合兴混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>89.30</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G112" t="n">
+        <v>0</v>
+      </c>
+      <c r="H112" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>011544</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>中加科瑞混合C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>26.11</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G113" t="n">
+        <v>0</v>
+      </c>
+      <c r="H113" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3391,7 +7714,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4587,7 +8910,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5137,7 +9460,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5953,7 +10276,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6275,7 +10598,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6407,7 +10730,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
